--- a/Assignments/hw1/q1n/q1_2.3.xlsx
+++ b/Assignments/hw1/q1n/q1_2.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q1n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{119A57D4-43BE-4C5F-A2F9-27B25BB5BAC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081EC29E-A2F6-4A0E-A1A3-0533264DEEFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{3BFC89F8-79DC-4069-87FC-0FD796151C36}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{3BFC89F8-79DC-4069-87FC-0FD796151C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1627">
   <si>
     <t>2.3</t>
   </si>
@@ -4931,6 +4931,9 @@
   </si>
   <si>
     <t>t_n+1 - t_n</t>
+  </si>
+  <si>
+    <t>eps</t>
   </si>
 </sst>
 </file>
@@ -4973,7 +4976,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -5018,9 +5024,10 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="1" xr16:uid="{E41F109F-8573-43E2-9C46-65D4F30FEBA8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="2">
-    <queryTableFields count="1">
+  <queryTableRefresh nextId="3" unboundColumnsRight="1">
+    <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
+      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -5030,7 +5037,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D4B0690-45AA-476A-8F88-F5C093CFFFF4}" name="tl" displayName="tl" ref="B1:B543" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:B543" xr:uid="{B485575A-9C4F-40C0-8140-CEF322C922D1}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{20111A94-C8CD-4645-A2BF-7EBF29FBC23F}" uniqueName="1" name="t_n" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{20111A94-C8CD-4645-A2BF-7EBF29FBC23F}" uniqueName="1" name="t_n" queryTableFieldId="1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5040,17 +5047,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{772C5DAE-2F42-4436-B826-F203AD8B0B61}" name="fl" displayName="fl" ref="C1:C543" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C1:C543" xr:uid="{4A937A8A-472C-41D0-9E5A-BB065FA0C491}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C32C5C54-2D7C-44ED-9E4C-4097148F1C2A}" uniqueName="1" name="f(t)" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C32C5C54-2D7C-44ED-9E4C-4097148F1C2A}" uniqueName="1" name="f(t)" queryTableFieldId="1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{18DF4D2C-4F71-4273-B1E8-44695906C091}" name="dtl" displayName="dtl" ref="D1:D542" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D1:D542" xr:uid="{25C66D14-E909-4805-A5E5-9F4D58E6E44F}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{AE82BB1A-9F25-482F-8D30-C6068D929D17}" uniqueName="1" name="t_n+1 - t_n" queryTableFieldId="1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{18DF4D2C-4F71-4273-B1E8-44695906C091}" name="dtl" displayName="dtl" ref="D1:E542" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D1:E542" xr:uid="{25C66D14-E909-4805-A5E5-9F4D58E6E44F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{AE82BB1A-9F25-482F-8D30-C6068D929D17}" uniqueName="1" name="t_n+1 - t_n" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3007E485-5AB8-4769-92E9-3C933143B543}" uniqueName="2" name="eps" queryTableFieldId="2" dataDxfId="0">
+      <calculatedColumnFormula>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5353,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5526B694-45D7-4BEC-AAA7-0DCBE9325A4B}">
-  <dimension ref="A1:D543"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5366,7 +5376,7 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1622</v>
       </c>
@@ -5379,8 +5389,11 @@
       <c r="D1" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5393,8 +5406,12 @@
       <c r="D2" s="1" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.2257635323202026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5407,8 +5424,12 @@
       <c r="D3" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>1.2729432396482951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5421,8 +5442,12 @@
       <c r="D4" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.87499540939824239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5435,8 +5460,12 @@
       <c r="D5" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.65992505753524067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5449,8 +5478,12 @@
       <c r="D6" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.75355846800127224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5463,8 +5496,12 @@
       <c r="D7" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50756768185247136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5477,8 +5514,12 @@
       <c r="D8" s="1" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50178754882211907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5491,8 +5532,12 @@
       <c r="D9" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50044093640471266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5505,8 +5550,12 @@
       <c r="D10" s="1" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50010987016434572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5519,8 +5568,12 @@
       <c r="D11" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50002744491655826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5533,8 +5586,12 @@
       <c r="D12" s="1" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000685981699178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5547,8 +5604,12 @@
       <c r="D13" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000017148660203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5561,8 +5622,12 @@
       <c r="D14" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000004287109906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5575,8 +5640,12 @@
       <c r="D15" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000010717740229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5589,8 +5658,12 @@
       <c r="D16" s="1" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000000267943272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5603,8 +5676,12 @@
       <c r="D17" s="1" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000669858291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5617,8 +5694,12 @@
       <c r="D18" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000167464465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5631,8 +5712,12 @@
       <c r="D19" s="1" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000041865944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5645,8 +5730,12 @@
       <c r="D20" s="1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000010466772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5659,8 +5748,12 @@
       <c r="D21" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000002616696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5673,8 +5766,12 @@
       <c r="D22" s="1" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000654121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5687,8 +5784,12 @@
       <c r="D23" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000163614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5701,8 +5802,12 @@
       <c r="D24" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000040912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5715,8 +5820,12 @@
       <c r="D25" s="1" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000000000001017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5729,8 +5838,12 @@
       <c r="D26" s="1" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000002209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5743,8 +5856,12 @@
       <c r="D27" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000711</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5757,8 +5874,12 @@
       <c r="D28" s="1" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5771,8 +5892,12 @@
       <c r="D29" s="1" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5785,8 +5910,12 @@
       <c r="D30" s="1" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5799,8 +5928,12 @@
       <c r="D31" s="1" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5813,8 +5946,12 @@
       <c r="D32" s="1" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5827,8 +5964,12 @@
       <c r="D33" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5841,8 +5982,12 @@
       <c r="D34" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5855,8 +6000,12 @@
       <c r="D35" s="1" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5869,8 +6018,12 @@
       <c r="D36" s="1" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5883,8 +6036,12 @@
       <c r="D37" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5897,8 +6054,12 @@
       <c r="D38" s="1" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5911,8 +6072,12 @@
       <c r="D39" s="1" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5925,8 +6090,12 @@
       <c r="D40" s="1" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5939,8 +6108,12 @@
       <c r="D41" s="1" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5953,8 +6126,12 @@
       <c r="D42" s="1" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5967,8 +6144,12 @@
       <c r="D43" s="1" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5981,8 +6162,12 @@
       <c r="D44" s="1" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5995,8 +6180,12 @@
       <c r="D45" s="1" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6009,8 +6198,12 @@
       <c r="D46" s="1" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6023,8 +6216,12 @@
       <c r="D47" s="1" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6037,8 +6234,12 @@
       <c r="D48" s="1" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6051,8 +6252,12 @@
       <c r="D49" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6065,8 +6270,12 @@
       <c r="D50" s="1" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6079,8 +6288,12 @@
       <c r="D51" s="1" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6093,8 +6306,12 @@
       <c r="D52" s="1" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6107,8 +6324,12 @@
       <c r="D53" s="1" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6121,8 +6342,12 @@
       <c r="D54" s="1" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6135,8 +6360,12 @@
       <c r="D55" s="1" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6149,8 +6378,12 @@
       <c r="D56" s="1" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6163,8 +6396,12 @@
       <c r="D57" s="1" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6177,8 +6414,12 @@
       <c r="D58" s="1" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6191,8 +6432,12 @@
       <c r="D59" s="1" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6205,8 +6450,12 @@
       <c r="D60" s="1" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6219,8 +6468,12 @@
       <c r="D61" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6233,8 +6486,12 @@
       <c r="D62" s="1" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6247,8 +6504,12 @@
       <c r="D63" s="1" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6261,8 +6522,12 @@
       <c r="D64" s="1" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6275,8 +6540,12 @@
       <c r="D65" s="1" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6289,8 +6558,12 @@
       <c r="D66" s="1" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6303,8 +6576,12 @@
       <c r="D67" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6317,8 +6594,12 @@
       <c r="D68" s="1" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6331,8 +6612,12 @@
       <c r="D69" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6345,8 +6630,12 @@
       <c r="D70" s="1" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6359,8 +6648,12 @@
       <c r="D71" s="1" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6373,8 +6666,12 @@
       <c r="D72" s="1" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6387,8 +6684,12 @@
       <c r="D73" s="1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6401,8 +6702,12 @@
       <c r="D74" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6415,8 +6720,12 @@
       <c r="D75" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6429,8 +6738,12 @@
       <c r="D76" s="1" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6443,8 +6756,12 @@
       <c r="D77" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6457,8 +6774,12 @@
       <c r="D78" s="1" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6471,8 +6792,12 @@
       <c r="D79" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6485,8 +6810,12 @@
       <c r="D80" s="1" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6499,8 +6828,12 @@
       <c r="D81" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6513,8 +6846,12 @@
       <c r="D82" s="1" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6527,8 +6864,12 @@
       <c r="D83" s="1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6541,8 +6882,12 @@
       <c r="D84" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6555,8 +6900,12 @@
       <c r="D85" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999872</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6569,8 +6918,12 @@
       <c r="D86" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6583,8 +6936,12 @@
       <c r="D87" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6597,8 +6954,12 @@
       <c r="D88" s="1" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6611,8 +6972,12 @@
       <c r="D89" s="1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6625,8 +6990,12 @@
       <c r="D90" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6639,8 +7008,12 @@
       <c r="D91" s="1" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6653,8 +7026,12 @@
       <c r="D92" s="1" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6667,8 +7044,12 @@
       <c r="D93" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6681,8 +7062,12 @@
       <c r="D94" s="1" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6695,8 +7080,12 @@
       <c r="D95" s="1" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6709,8 +7098,12 @@
       <c r="D96" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6723,8 +7116,12 @@
       <c r="D97" s="1" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6737,8 +7134,12 @@
       <c r="D98" s="1" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6751,8 +7152,12 @@
       <c r="D99" s="1" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6765,8 +7170,12 @@
       <c r="D100" s="1" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6779,8 +7188,12 @@
       <c r="D101" s="1" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6793,8 +7206,12 @@
       <c r="D102" s="1" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999828</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6807,8 +7224,12 @@
       <c r="D103" s="1" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6821,8 +7242,12 @@
       <c r="D104" s="1" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6835,8 +7260,12 @@
       <c r="D105" s="1" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6849,8 +7278,12 @@
       <c r="D106" s="1" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6863,8 +7296,12 @@
       <c r="D107" s="1" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6877,8 +7314,12 @@
       <c r="D108" s="1" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6891,8 +7332,12 @@
       <c r="D109" s="1" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999784</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6905,8 +7350,12 @@
       <c r="D110" s="1" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6919,8 +7368,12 @@
       <c r="D111" s="1" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6933,8 +7386,12 @@
       <c r="D112" s="1" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6947,8 +7404,12 @@
       <c r="D113" s="1" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6961,8 +7422,12 @@
       <c r="D114" s="1" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6975,8 +7440,12 @@
       <c r="D115" s="1" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6989,8 +7458,12 @@
       <c r="D116" s="1" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7003,8 +7476,12 @@
       <c r="D117" s="1" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7017,8 +7494,12 @@
       <c r="D118" s="1" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7031,8 +7512,12 @@
       <c r="D119" s="1" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7045,8 +7530,12 @@
       <c r="D120" s="1" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7059,8 +7548,12 @@
       <c r="D121" s="1" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7073,8 +7566,12 @@
       <c r="D122" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7087,8 +7584,12 @@
       <c r="D123" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7101,8 +7602,12 @@
       <c r="D124" s="1" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7115,8 +7620,12 @@
       <c r="D125" s="1" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7129,8 +7638,12 @@
       <c r="D126" s="1" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7143,8 +7656,12 @@
       <c r="D127" s="1" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7157,8 +7674,12 @@
       <c r="D128" s="1" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7171,8 +7692,12 @@
       <c r="D129" s="1" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7185,8 +7710,12 @@
       <c r="D130" s="1" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7199,8 +7728,12 @@
       <c r="D131" s="1" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7213,8 +7746,12 @@
       <c r="D132" s="1" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999817</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7227,8 +7764,12 @@
       <c r="D133" s="1" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7241,8 +7782,12 @@
       <c r="D134" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7255,8 +7800,12 @@
       <c r="D135" s="1" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7269,8 +7818,12 @@
       <c r="D136" s="1" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7283,8 +7836,12 @@
       <c r="D137" s="1" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7297,8 +7854,12 @@
       <c r="D138" s="1" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7311,8 +7872,12 @@
       <c r="D139" s="1" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7325,8 +7890,12 @@
       <c r="D140" s="1" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7339,8 +7908,12 @@
       <c r="D141" s="1" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7353,8 +7926,12 @@
       <c r="D142" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7367,8 +7944,12 @@
       <c r="D143" s="1" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7381,8 +7962,12 @@
       <c r="D144" s="1" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7395,8 +7980,12 @@
       <c r="D145" s="1" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7409,8 +7998,12 @@
       <c r="D146" s="1" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7423,8 +8016,12 @@
       <c r="D147" s="1" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7437,8 +8034,12 @@
       <c r="D148" s="1" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7451,8 +8052,12 @@
       <c r="D149" s="1" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7465,8 +8070,12 @@
       <c r="D150" s="1" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7479,8 +8088,12 @@
       <c r="D151" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7493,8 +8106,12 @@
       <c r="D152" s="1" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7507,8 +8124,12 @@
       <c r="D153" s="1" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7521,8 +8142,12 @@
       <c r="D154" s="1" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7535,8 +8160,12 @@
       <c r="D155" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7549,8 +8178,12 @@
       <c r="D156" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7563,8 +8196,12 @@
       <c r="D157" s="1" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7577,8 +8214,12 @@
       <c r="D158" s="1" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7591,8 +8232,12 @@
       <c r="D159" s="1" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7605,8 +8250,12 @@
       <c r="D160" s="1" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7619,8 +8268,12 @@
       <c r="D161" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7633,8 +8286,12 @@
       <c r="D162" s="1" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7647,8 +8304,12 @@
       <c r="D163" s="1" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7661,8 +8322,12 @@
       <c r="D164" s="1" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7675,8 +8340,12 @@
       <c r="D165" s="1" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999985</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -7689,8 +8358,12 @@
       <c r="D166" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7703,8 +8376,12 @@
       <c r="D167" s="1" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7717,8 +8394,12 @@
       <c r="D168" s="1" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7731,8 +8412,12 @@
       <c r="D169" s="1" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999756</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7745,8 +8430,12 @@
       <c r="D170" s="1" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000289</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7759,8 +8448,12 @@
       <c r="D171" s="1" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7773,8 +8466,12 @@
       <c r="D172" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7787,8 +8484,12 @@
       <c r="D173" s="1" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7801,8 +8502,12 @@
       <c r="D174" s="1" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7815,8 +8520,12 @@
       <c r="D175" s="1" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7829,8 +8538,12 @@
       <c r="D176" s="1" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7843,8 +8556,12 @@
       <c r="D177" s="1" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7857,8 +8574,12 @@
       <c r="D178" s="1" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7871,8 +8592,12 @@
       <c r="D179" s="1" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7885,8 +8610,12 @@
       <c r="D180" s="1" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7899,8 +8628,12 @@
       <c r="D181" s="1" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7913,8 +8646,12 @@
       <c r="D182" s="1" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7927,8 +8664,12 @@
       <c r="D183" s="1" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7941,8 +8682,12 @@
       <c r="D184" s="1" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7955,8 +8700,12 @@
       <c r="D185" s="1" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7969,8 +8718,12 @@
       <c r="D186" s="1" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7983,8 +8736,12 @@
       <c r="D187" s="1" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7997,8 +8754,12 @@
       <c r="D188" s="1" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999872</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -8011,8 +8772,12 @@
       <c r="D189" s="1" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -8025,8 +8790,12 @@
       <c r="D190" s="1" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -8039,8 +8808,12 @@
       <c r="D191" s="1" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -8053,8 +8826,12 @@
       <c r="D192" s="1" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -8067,8 +8844,12 @@
       <c r="D193" s="1" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8081,8 +8862,12 @@
       <c r="D194" s="1" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8095,8 +8880,12 @@
       <c r="D195" s="1" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999828</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8109,8 +8898,12 @@
       <c r="D196" s="1" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -8123,8 +8916,12 @@
       <c r="D197" s="1" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8137,8 +8934,12 @@
       <c r="D198" s="1" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -8151,8 +8952,12 @@
       <c r="D199" s="1" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -8165,8 +8970,12 @@
       <c r="D200" s="1" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -8179,8 +8988,12 @@
       <c r="D201" s="1" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999895</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -8193,8 +9006,12 @@
       <c r="D202" s="1" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8207,8 +9024,12 @@
       <c r="D203" s="1" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8221,8 +9042,12 @@
       <c r="D204" s="1" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8235,8 +9060,12 @@
       <c r="D205" s="1" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999828</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8249,8 +9078,12 @@
       <c r="D206" s="1" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8263,8 +9096,12 @@
       <c r="D207" s="1" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8277,8 +9114,12 @@
       <c r="D208" s="1" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999861</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8291,8 +9132,12 @@
       <c r="D209" s="1" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8305,8 +9150,12 @@
       <c r="D210" s="1" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8319,8 +9168,12 @@
       <c r="D211" s="1" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999895</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8333,8 +9186,12 @@
       <c r="D212" s="1" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8347,8 +9204,12 @@
       <c r="D213" s="1" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8361,8 +9222,12 @@
       <c r="D214" s="1" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8375,8 +9240,12 @@
       <c r="D215" s="1" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8389,8 +9258,12 @@
       <c r="D216" s="1" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8403,8 +9276,12 @@
       <c r="D217" s="1" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8417,8 +9294,12 @@
       <c r="D218" s="1" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999861</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8431,8 +9312,12 @@
       <c r="D219" s="1" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8445,8 +9330,12 @@
       <c r="D220" s="1" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8459,8 +9348,12 @@
       <c r="D221" s="1" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8473,8 +9366,12 @@
       <c r="D222" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8487,8 +9384,12 @@
       <c r="D223" s="1" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8501,8 +9402,12 @@
       <c r="D224" s="1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8515,8 +9420,12 @@
       <c r="D225" s="1" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8529,8 +9438,12 @@
       <c r="D226" s="1" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8543,8 +9456,12 @@
       <c r="D227" s="1" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8557,8 +9474,12 @@
       <c r="D228" s="1" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999861</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8571,8 +9492,12 @@
       <c r="D229" s="1" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8585,8 +9510,12 @@
       <c r="D230" s="1" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8599,8 +9528,12 @@
       <c r="D231" s="1" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8613,8 +9546,12 @@
       <c r="D232" s="1" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999772</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8627,8 +9564,12 @@
       <c r="D233" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8641,8 +9582,12 @@
       <c r="D234" s="1" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8655,8 +9600,12 @@
       <c r="D235" s="1" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8669,8 +9618,12 @@
       <c r="D236" s="1" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8683,8 +9636,12 @@
       <c r="D237" s="1" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8697,8 +9654,12 @@
       <c r="D238" s="1" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8711,8 +9672,12 @@
       <c r="D239" s="1" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8725,8 +9690,12 @@
       <c r="D240" s="1" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8739,8 +9708,12 @@
       <c r="D241" s="1" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -8753,8 +9726,12 @@
       <c r="D242" s="1" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999772</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -8767,8 +9744,12 @@
       <c r="D243" s="1" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -8781,8 +9762,12 @@
       <c r="D244" s="1" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999906</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -8795,8 +9780,12 @@
       <c r="D245" s="1" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999817</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -8809,8 +9798,12 @@
       <c r="D246" s="1" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8823,8 +9816,12 @@
       <c r="D247" s="1" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8837,8 +9834,12 @@
       <c r="D248" s="1" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999985</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8851,8 +9852,12 @@
       <c r="D249" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8865,8 +9870,12 @@
       <c r="D250" s="1" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8879,8 +9888,12 @@
       <c r="D251" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8893,8 +9906,12 @@
       <c r="D252" s="1" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8907,8 +9924,12 @@
       <c r="D253" s="1" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8921,8 +9942,12 @@
       <c r="D254" s="1" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8935,8 +9960,12 @@
       <c r="D255" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8949,8 +9978,12 @@
       <c r="D256" s="1" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8963,8 +9996,12 @@
       <c r="D257" s="1" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8977,8 +10014,12 @@
       <c r="D258" s="1" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8991,8 +10032,12 @@
       <c r="D259" s="1" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -9005,8 +10050,12 @@
       <c r="D260" s="1" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9019,8 +10068,12 @@
       <c r="D261" s="1" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9033,8 +10086,12 @@
       <c r="D262" s="1" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999761</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9047,8 +10104,12 @@
       <c r="D263" s="1" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000289</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9061,8 +10122,12 @@
       <c r="D264" s="1" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9075,8 +10140,12 @@
       <c r="D265" s="1" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9089,8 +10158,12 @@
       <c r="D266" s="1" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9103,8 +10176,12 @@
       <c r="D267" s="1" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9117,8 +10194,12 @@
       <c r="D268" s="1" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9131,8 +10212,12 @@
       <c r="D269" s="1" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9145,8 +10230,12 @@
       <c r="D270" s="1" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9159,8 +10248,12 @@
       <c r="D271" s="1" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9173,8 +10266,12 @@
       <c r="D272" s="1" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9187,8 +10284,12 @@
       <c r="D273" s="1" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999956</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9201,8 +10302,12 @@
       <c r="D274" s="1" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9215,8 +10320,12 @@
       <c r="D275" s="1" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9229,8 +10338,12 @@
       <c r="D276" s="1" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9243,8 +10356,12 @@
       <c r="D277" s="1" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9257,8 +10374,12 @@
       <c r="D278" s="1" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9271,8 +10392,12 @@
       <c r="D279" s="1" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000255</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9285,8 +10410,12 @@
       <c r="D280" s="1" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -9299,8 +10428,12 @@
       <c r="D281" s="1" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999872</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -9313,8 +10446,12 @@
       <c r="D282" s="1" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -9327,8 +10464,12 @@
       <c r="D283" s="1" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -9341,8 +10482,12 @@
       <c r="D284" s="1" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999895</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -9355,8 +10500,12 @@
       <c r="D285" s="1" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -9369,8 +10518,12 @@
       <c r="D286" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -9383,8 +10536,12 @@
       <c r="D287" s="1" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -9397,8 +10554,12 @@
       <c r="D288" s="1" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -9411,8 +10572,12 @@
       <c r="D289" s="1" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -9425,8 +10590,12 @@
       <c r="D290" s="1" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -9439,8 +10608,12 @@
       <c r="D291" s="1" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -9453,8 +10626,12 @@
       <c r="D292" s="1" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -9467,8 +10644,12 @@
       <c r="D293" s="1" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -9481,8 +10662,12 @@
       <c r="D294" s="1" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -9495,8 +10680,12 @@
       <c r="D295" s="1" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999789</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -9509,8 +10698,12 @@
       <c r="D296" s="1" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -9523,8 +10716,12 @@
       <c r="D297" s="1" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -9537,8 +10734,12 @@
       <c r="D298" s="1" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999828</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -9551,8 +10752,12 @@
       <c r="D299" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -9565,8 +10770,12 @@
       <c r="D300" s="1" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -9579,8 +10788,12 @@
       <c r="D301" s="1" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -9593,8 +10806,12 @@
       <c r="D302" s="1" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -9607,8 +10824,12 @@
       <c r="D303" s="1" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -9621,8 +10842,12 @@
       <c r="D304" s="1" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -9635,8 +10860,12 @@
       <c r="D305" s="1" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -9649,8 +10878,12 @@
       <c r="D306" s="1" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -9663,8 +10896,12 @@
       <c r="D307" s="1" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -9677,8 +10914,12 @@
       <c r="D308" s="1" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999828</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -9691,8 +10932,12 @@
       <c r="D309" s="1" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -9705,8 +10950,12 @@
       <c r="D310" s="1" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -9719,8 +10968,12 @@
       <c r="D311" s="1" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -9733,8 +10986,12 @@
       <c r="D312" s="1" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -9747,8 +11004,12 @@
       <c r="D313" s="1" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -9761,8 +11022,12 @@
       <c r="D314" s="1" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -9775,8 +11040,12 @@
       <c r="D315" s="1" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -9789,8 +11058,12 @@
       <c r="D316" s="1" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -9803,8 +11076,12 @@
       <c r="D317" s="1" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -9817,8 +11094,12 @@
       <c r="D318" s="1" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -9831,8 +11112,12 @@
       <c r="D319" s="1" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -9845,8 +11130,12 @@
       <c r="D320" s="1" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -9859,8 +11148,12 @@
       <c r="D321" s="1" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9873,8 +11166,12 @@
       <c r="D322" s="1" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9887,8 +11184,12 @@
       <c r="D323" s="1" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9901,8 +11202,12 @@
       <c r="D324" s="1" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9915,8 +11220,12 @@
       <c r="D325" s="1" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9929,8 +11238,12 @@
       <c r="D326" s="1" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000355</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9943,8 +11256,12 @@
       <c r="D327" s="1" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9957,8 +11274,12 @@
       <c r="D328" s="1" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9971,8 +11292,12 @@
       <c r="D329" s="1" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9985,8 +11310,12 @@
       <c r="D330" s="1" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9999,8 +11328,12 @@
       <c r="D331" s="1" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999861</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -10013,8 +11346,12 @@
       <c r="D332" s="1" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -10027,8 +11364,12 @@
       <c r="D333" s="1" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -10041,8 +11382,12 @@
       <c r="D334" s="1" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -10055,8 +11400,12 @@
       <c r="D335" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -10069,8 +11418,12 @@
       <c r="D336" s="1" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -10083,8 +11436,12 @@
       <c r="D337" s="1" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -10097,8 +11454,12 @@
       <c r="D338" s="1" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -10111,8 +11472,12 @@
       <c r="D339" s="1" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000144</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -10125,8 +11490,12 @@
       <c r="D340" s="1" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -10139,8 +11508,12 @@
       <c r="D341" s="1" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -10153,8 +11526,12 @@
       <c r="D342" s="1" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -10167,8 +11544,12 @@
       <c r="D343" s="1" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -10181,8 +11562,12 @@
       <c r="D344" s="1" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -10195,8 +11580,12 @@
       <c r="D345" s="1" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -10209,8 +11598,12 @@
       <c r="D346" s="1" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10223,8 +11616,12 @@
       <c r="D347" s="1" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999906</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10237,8 +11634,12 @@
       <c r="D348" s="1" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10251,8 +11652,12 @@
       <c r="D349" s="1" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -10265,8 +11670,12 @@
       <c r="D350" s="1" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -10279,8 +11688,12 @@
       <c r="D351" s="1" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -10293,8 +11706,12 @@
       <c r="D352" s="1" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -10307,8 +11724,12 @@
       <c r="D353" s="1" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -10321,8 +11742,12 @@
       <c r="D354" s="1" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -10335,8 +11760,12 @@
       <c r="D355" s="1" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -10349,8 +11778,12 @@
       <c r="D356" s="1" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10363,8 +11796,12 @@
       <c r="D357" s="1" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10377,8 +11814,12 @@
       <c r="D358" s="1" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10391,8 +11832,12 @@
       <c r="D359" s="1" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10405,8 +11850,12 @@
       <c r="D360" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10419,8 +11868,12 @@
       <c r="D361" s="1" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10433,8 +11886,12 @@
       <c r="D362" s="1" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10447,8 +11904,12 @@
       <c r="D363" s="1" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10461,8 +11922,12 @@
       <c r="D364" s="1" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -10475,8 +11940,12 @@
       <c r="D365" s="1" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999756</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -10489,8 +11958,12 @@
       <c r="D366" s="1" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000289</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -10503,8 +11976,12 @@
       <c r="D367" s="1" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -10517,8 +11994,12 @@
       <c r="D368" s="1" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999806</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -10531,8 +12012,12 @@
       <c r="D369" s="1" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000311</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -10545,8 +12030,12 @@
       <c r="D370" s="1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -10559,8 +12048,12 @@
       <c r="D371" s="1" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -10573,8 +12066,12 @@
       <c r="D372" s="1" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -10587,8 +12084,12 @@
       <c r="D373" s="1" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -10601,8 +12102,12 @@
       <c r="D374" s="1" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -10615,8 +12120,12 @@
       <c r="D375" s="1" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -10629,8 +12138,12 @@
       <c r="D376" s="1" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999995</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -10643,8 +12156,12 @@
       <c r="D377" s="1" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -10657,8 +12174,12 @@
       <c r="D378" s="1" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999795</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -10671,8 +12192,12 @@
       <c r="D379" s="1" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -10685,8 +12210,12 @@
       <c r="D380" s="1" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -10699,8 +12228,12 @@
       <c r="D381" s="1" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10713,8 +12246,12 @@
       <c r="D382" s="1" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000266</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10727,8 +12264,12 @@
       <c r="D383" s="1" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10741,8 +12282,12 @@
       <c r="D384" s="1" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -10755,8 +12300,12 @@
       <c r="D385" s="1" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -10769,8 +12318,12 @@
       <c r="D386" s="1" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999995</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -10783,8 +12336,12 @@
       <c r="D387" s="1" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -10797,8 +12354,12 @@
       <c r="D388" s="1" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999789</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -10811,8 +12372,12 @@
       <c r="D389" s="1" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000333</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -10825,8 +12390,12 @@
       <c r="D390" s="1" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999917</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -10839,8 +12408,12 @@
       <c r="D391" s="1" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -10853,8 +12426,12 @@
       <c r="D392" s="1" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -10867,8 +12444,12 @@
       <c r="D393" s="1" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -10881,8 +12462,12 @@
       <c r="D394" s="1" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -10895,8 +12480,12 @@
       <c r="D395" s="1" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000211</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -10909,8 +12498,12 @@
       <c r="D396" s="1" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999995</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -10923,8 +12516,12 @@
       <c r="D397" s="1" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -10937,8 +12534,12 @@
       <c r="D398" s="1" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -10951,8 +12552,12 @@
       <c r="D399" s="1" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -10965,8 +12570,12 @@
       <c r="D400" s="1" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -10979,8 +12588,12 @@
       <c r="D401" s="1" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -10993,8 +12606,12 @@
       <c r="D402" s="1" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -11007,8 +12624,12 @@
       <c r="D403" s="1" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -11021,8 +12642,12 @@
       <c r="D404" s="1" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11035,8 +12660,12 @@
       <c r="D405" s="1" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11049,8 +12678,12 @@
       <c r="D406" s="1" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11063,8 +12696,12 @@
       <c r="D407" s="1" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999895</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11077,8 +12714,12 @@
       <c r="D408" s="1" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999784</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11091,8 +12732,12 @@
       <c r="D409" s="1" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000344</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11105,8 +12750,12 @@
       <c r="D410" s="1" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11119,8 +12768,12 @@
       <c r="D411" s="1" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999828</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11133,8 +12786,12 @@
       <c r="D412" s="1" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11147,8 +12804,12 @@
       <c r="D413" s="1" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11161,8 +12822,12 @@
       <c r="D414" s="1" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999861</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11175,8 +12840,12 @@
       <c r="D415" s="1" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11189,8 +12858,12 @@
       <c r="D416" s="1" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -11203,8 +12876,12 @@
       <c r="D417" s="1" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -11217,8 +12894,12 @@
       <c r="D418" s="1" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -11231,8 +12912,12 @@
       <c r="D419" s="1" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000266</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -11245,8 +12930,12 @@
       <c r="D420" s="1" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -11259,8 +12948,12 @@
       <c r="D421" s="1" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999817</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -11273,8 +12966,12 @@
       <c r="D422" s="1" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000289</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -11287,8 +12984,12 @@
       <c r="D423" s="1" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -11301,8 +13002,12 @@
       <c r="D424" s="1" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999861</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -11315,8 +13020,12 @@
       <c r="D425" s="1" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -11329,8 +13038,12 @@
       <c r="D426" s="1" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E426" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -11343,8 +13056,12 @@
       <c r="D427" s="1" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -11357,8 +13074,12 @@
       <c r="D428" s="1" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E428" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999772</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -11371,8 +13092,12 @@
       <c r="D429" s="1" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E429" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000366</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -11385,8 +13110,12 @@
       <c r="D430" s="1" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -11399,8 +13128,12 @@
       <c r="D431" s="1" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -11413,8 +13146,12 @@
       <c r="D432" s="1" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E432" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000144</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -11427,8 +13164,12 @@
       <c r="D433" s="1" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E433" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -11441,8 +13182,12 @@
       <c r="D434" s="1" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E434" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -11455,8 +13200,12 @@
       <c r="D435" s="1" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -11469,8 +13218,12 @@
       <c r="D436" s="1" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E436" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999939</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -11483,8 +13236,12 @@
       <c r="D437" s="1" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E437" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -11497,8 +13254,12 @@
       <c r="D438" s="1" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E438" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -11511,8 +13272,12 @@
       <c r="D439" s="1" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E439" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -11525,8 +13290,12 @@
       <c r="D440" s="1" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E440" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -11539,8 +13308,12 @@
       <c r="D441" s="1" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -11553,8 +13326,12 @@
       <c r="D442" s="1" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E442" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -11567,8 +13344,12 @@
       <c r="D443" s="1" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E443" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -11581,8 +13362,12 @@
       <c r="D444" s="1" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -11595,8 +13380,12 @@
       <c r="D445" s="1" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E445" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -11609,8 +13398,12 @@
       <c r="D446" s="1" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E446" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -11623,8 +13416,12 @@
       <c r="D447" s="1" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E447" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999883</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -11637,8 +13434,12 @@
       <c r="D448" s="1" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E448" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999761</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -11651,8 +13452,12 @@
       <c r="D449" s="1" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E449" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000389</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -11665,8 +13470,12 @@
       <c r="D450" s="1" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E450" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -11679,8 +13488,12 @@
       <c r="D451" s="1" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999806</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -11693,8 +13506,12 @@
       <c r="D452" s="1" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E452" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -11707,8 +13524,12 @@
       <c r="D453" s="1" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E453" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -11721,8 +13542,12 @@
       <c r="D454" s="1" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E454" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999985</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -11735,8 +13560,12 @@
       <c r="D455" s="1" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E455" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -11749,8 +13578,12 @@
       <c r="D456" s="1" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E456" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -11763,8 +13596,12 @@
       <c r="D457" s="1" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E457" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -11777,8 +13614,12 @@
       <c r="D458" s="1" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E458" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -11791,8 +13632,12 @@
       <c r="D459" s="1" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E459" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -11805,8 +13650,12 @@
       <c r="D460" s="1" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E460" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -11819,8 +13668,12 @@
       <c r="D461" s="1" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E461" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -11833,8 +13686,12 @@
       <c r="D462" s="1" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E462" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -11847,8 +13704,12 @@
       <c r="D463" s="1" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E463" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -11861,8 +13722,12 @@
       <c r="D464" s="1" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E464" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -11875,8 +13740,12 @@
       <c r="D465" s="1" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E465" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
@@ -11889,8 +13758,12 @@
       <c r="D466" s="1" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E466" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
@@ -11903,8 +13776,12 @@
       <c r="D467" s="1" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E467" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
@@ -11917,8 +13794,12 @@
       <c r="D468" s="1" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E468" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
@@ -11931,8 +13812,12 @@
       <c r="D469" s="1" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E469" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -11945,8 +13830,12 @@
       <c r="D470" s="1" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E470" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -11959,8 +13848,12 @@
       <c r="D471" s="1" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E471" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -11973,8 +13866,12 @@
       <c r="D472" s="1" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E472" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000322</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -11987,8 +13884,12 @@
       <c r="D473" s="1" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E473" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -12001,8 +13902,12 @@
       <c r="D474" s="1" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E474" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
@@ -12015,8 +13920,12 @@
       <c r="D475" s="1" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E475" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
@@ -12029,8 +13938,12 @@
       <c r="D476" s="1" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E476" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
@@ -12043,8 +13956,12 @@
       <c r="D477" s="1" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E477" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999872</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
@@ -12057,8 +13974,12 @@
       <c r="D478" s="1" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E478" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
@@ -12071,8 +13992,12 @@
       <c r="D479" s="1" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E479" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
@@ -12085,8 +14010,12 @@
       <c r="D480" s="1" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E480" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
@@ -12099,8 +14028,12 @@
       <c r="D481" s="1" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E481" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999795</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
@@ -12113,8 +14046,12 @@
       <c r="D482" s="1" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E482" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -12127,8 +14064,12 @@
       <c r="D483" s="1" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E483" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -12141,8 +14082,12 @@
       <c r="D484" s="1" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E484" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -12155,8 +14100,12 @@
       <c r="D485" s="1" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E485" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
@@ -12169,8 +14118,12 @@
       <c r="D486" s="1" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -12183,8 +14136,12 @@
       <c r="D487" s="1" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
@@ -12197,8 +14154,12 @@
       <c r="D488" s="1" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E488" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
@@ -12211,8 +14172,12 @@
       <c r="D489" s="1" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E489" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
@@ -12225,8 +14190,12 @@
       <c r="D490" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E490" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999895</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
@@ -12239,8 +14208,12 @@
       <c r="D491" s="1" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E491" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999789</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -12253,8 +14226,12 @@
       <c r="D492" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E492" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000344</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
@@ -12267,8 +14244,12 @@
       <c r="D493" s="1" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E493" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -12281,8 +14262,12 @@
       <c r="D494" s="1" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E494" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
@@ -12295,8 +14280,12 @@
       <c r="D495" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E495" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -12309,8 +14298,12 @@
       <c r="D496" s="1" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E496" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
@@ -12323,8 +14316,12 @@
       <c r="D497" s="1" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E497" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -12337,8 +14334,12 @@
       <c r="D498" s="1" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E498" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -12351,8 +14352,12 @@
       <c r="D499" s="1" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E499" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
@@ -12365,8 +14370,12 @@
       <c r="D500" s="1" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E500" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999895</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
@@ -12379,8 +14388,12 @@
       <c r="D501" s="1" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E501" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999784</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -12393,8 +14406,12 @@
       <c r="D502" s="1" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E502" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000344</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -12407,8 +14424,12 @@
       <c r="D503" s="1" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E503" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
@@ -12421,8 +14442,12 @@
       <c r="D504" s="1" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E504" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
@@ -12435,8 +14460,12 @@
       <c r="D505" s="1" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E505" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -12449,8 +14478,12 @@
       <c r="D506" s="1" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E506" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999928</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
@@ -12463,8 +14496,12 @@
       <c r="D507" s="1" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E507" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
@@ -12477,8 +14514,12 @@
       <c r="D508" s="1" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E508" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -12491,8 +14532,12 @@
       <c r="D509" s="1" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E509" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999999995</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -12505,8 +14550,12 @@
       <c r="D510" s="1" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E510" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
@@ -12519,8 +14568,12 @@
       <c r="D511" s="1" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E511" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
@@ -12533,8 +14586,12 @@
       <c r="D512" s="1" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E512" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000266</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
@@ -12547,8 +14604,12 @@
       <c r="D513" s="1" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E513" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -12561,8 +14622,12 @@
       <c r="D514" s="1" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E514" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
@@ -12575,8 +14640,12 @@
       <c r="D515" s="1" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E515" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
@@ -12589,8 +14658,12 @@
       <c r="D516" s="1" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E516" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
@@ -12603,8 +14676,12 @@
       <c r="D517" s="1" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E517" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -12617,8 +14694,12 @@
       <c r="D518" s="1" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E518" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000122</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
@@ -12631,8 +14712,12 @@
       <c r="D519" s="1" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E519" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
@@ -12645,8 +14730,12 @@
       <c r="D520" s="1" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E520" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999994005</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
@@ -12659,8 +14748,12 @@
       <c r="D521" s="1" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E521" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999994571</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -12673,8 +14766,12 @@
       <c r="D522" s="1" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E522" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999933303</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -12687,8 +14784,12 @@
       <c r="D523" s="1" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E523" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000204525</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -12701,8 +14802,12 @@
       <c r="D524" s="1" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E524" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.4999999999980434</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
@@ -12715,8 +14820,12 @@
       <c r="D525" s="1" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E525" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000005887257</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
@@ -12729,8 +14838,12 @@
       <c r="D526" s="1" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E526" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999991764704</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -12743,8 +14856,12 @@
       <c r="D527" s="1" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E527" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000078881834</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -12757,8 +14874,12 @@
       <c r="D528" s="1" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E528" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999822295504</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -12771,8 +14892,12 @@
       <c r="D529" s="1" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E529" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999998638186383</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -12785,8 +14910,12 @@
       <c r="D530" s="1" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E530" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000002544160727</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
@@ -12799,8 +14928,12 @@
       <c r="D531" s="1" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E531" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999981114074421</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
@@ -12813,8 +14946,12 @@
       <c r="D532" s="1" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E532" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000102452588235</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
@@ -12827,8 +14964,12 @@
       <c r="D533" s="1" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E533" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999883062865835</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -12841,8 +14982,12 @@
       <c r="D534" s="1" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E534" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49998800602038801</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -12855,8 +15000,12 @@
       <c r="D535" s="1" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E535" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50003190327693814</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
@@ -12869,8 +15018,12 @@
       <c r="D536" s="1" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E536" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5002315048918049</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -12883,8 +15036,12 @@
       <c r="D537" s="1" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E537" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5001514081332521</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
@@ -12897,8 +15054,12 @@
       <c r="D538" s="1" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E538" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49610267588259604</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -12911,8 +15072,12 @@
       <c r="D539" s="1" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E539" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.51416660835717309</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
@@ -12925,8 +15090,12 @@
       <c r="D540" s="1" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E540" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.43567149175727821</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
@@ -12939,8 +15108,12 @@
       <c r="D541" s="1" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E541" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.45600951825683206</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
@@ -12953,8 +15126,12 @@
       <c r="D542" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E542" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
